--- a/ExpenseTracker_Requirements.xlsx
+++ b/ExpenseTracker_Requirements.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D408F6-93B7-4BE5-9315-057B20B95ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD34B4-738C-44B1-9F7C-019708E26954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Home Page" sheetId="2" r:id="rId2"/>
+    <sheet name="View Expense" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sl No</t>
   </si>
@@ -50,14 +52,49 @@
   </si>
   <si>
     <t>Requirements</t>
+  </si>
+  <si>
+    <t>Expense Tracker</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Add Expense</t>
+  </si>
+  <si>
+    <t>View Expense</t>
+  </si>
+  <si>
+    <t>Monthly Trends</t>
+  </si>
+  <si>
+    <t>Category Pie Charts</t>
+  </si>
+  <si>
+    <t>Payment Reminders</t>
+  </si>
+  <si>
+    <t>Category-Tags Maps</t>
+  </si>
+  <si>
+    <t>February</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -73,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -81,12 +118,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +299,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Interpretation of Circle Graphs | CK-12 Foundation">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887847C4-C71C-4926-BC1C-1117287188F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="11775"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3108960" y="1127759"/>
+          <a:ext cx="4328160" cy="2302581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,4 +714,364 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2909F94F-8DFB-4480-9509-9D5262879EE2}">
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="29">
+        <v>2023</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="F6:M19"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF354CF-07E4-4B68-9AC8-A155B813EA43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExpenseTracker_Requirements.xlsx
+++ b/ExpenseTracker_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD34B4-738C-44B1-9F7C-019708E26954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D36CDE-EEE6-43C0-828F-3E580FC41CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExpenseTracker_Requirements.xlsx
+++ b/ExpenseTracker_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D36CDE-EEE6-43C0-828F-3E580FC41CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A006752A-94B8-4682-82D3-403DBE8E23E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,8 @@
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Home Page" sheetId="2" r:id="rId2"/>
     <sheet name="View Expense" sheetId="3" r:id="rId3"/>
+    <sheet name="Add Expense" sheetId="4" r:id="rId4"/>
+    <sheet name="Monthly Trends" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Sl No</t>
   </si>
@@ -78,14 +80,138 @@
     <t>Category-Tags Maps</t>
   </si>
   <si>
-    <t>February</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Month-Year</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>&lt;---1-2-3---&gt;</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Total Expenditure</t>
+  </si>
+  <si>
+    <t>Travel Expenditure</t>
+  </si>
+  <si>
+    <t>Entertainement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2023                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                           Expenditure Records                    Total Amount:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rs. 15,436</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">February        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2023        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +227,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -211,11 +358,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -223,45 +605,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,6 +645,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,7 +666,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,10 +781,10 @@
       <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>77540</xdr:rowOff>
+      <xdr:rowOff>85160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,9 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -723,48 +1191,53 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="11" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="20"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -777,263 +1250,988 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="29">
-        <v>2023</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="19"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="19"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="19"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="F6:M19"/>
+    <mergeCell ref="B16:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF354CF-07E4-4B68-9AC8-A155B813EA43}">
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="73"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="F5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B16:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F11BB7E-1A3E-4E6C-8ED7-D7AD7239F085}">
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="73"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="19"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="19"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="19"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="7"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1046,13 +2244,14 @@
       <c r="N21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B10:D11"/>
     <mergeCell ref="B12:D13"/>
     <mergeCell ref="B14:D15"/>
-    <mergeCell ref="F6:M19"/>
     <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="B6:D7"/>
@@ -1060,18 +2259,418 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF354CF-07E4-4B68-9AC8-A155B813EA43}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691D110-6250-4556-9450-C76306A93A44}">
+  <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="73"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="77">
+        <v>20576</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="60">
+        <v>19323</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="62">
+        <v>21345</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="60">
+        <v>15456</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="61">
+        <v>13898</v>
+      </c>
+      <c r="L8" s="61">
+        <v>13899</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="60">
+        <v>10501</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="81">
+        <v>20576</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="60">
+        <v>19323</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="62">
+        <v>21345</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="60">
+        <v>15456</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="61">
+        <v>13898</v>
+      </c>
+      <c r="L13" s="61">
+        <v>13899</v>
+      </c>
+      <c r="M13" s="59"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="60">
+        <v>10501</v>
+      </c>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="81">
+        <v>20576</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="60">
+        <v>19323</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="62">
+        <v>21345</v>
+      </c>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="60">
+        <v>15456</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="61">
+        <v>13898</v>
+      </c>
+      <c r="L18" s="61">
+        <v>13899</v>
+      </c>
+      <c r="M18" s="59"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="60">
+        <v>10501</v>
+      </c>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>